--- a/simulation results/RMSE results.xlsx
+++ b/simulation results/RMSE results.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xijuan/local-fit-indices2/simulation results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72721710-4879-AC46-92B3-E462A0362E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF8C17B-8FC5-D54F-A927-984FDCB990B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="33320" windowHeight="21580" xr2:uid="{03252FE9-70DE-CC42-9FB7-50C8ABDE8946}"/>
+    <workbookView xWindow="11820" yWindow="1200" windowWidth="33320" windowHeight="21580" activeTab="1" xr2:uid="{03252FE9-70DE-CC42-9FB7-50C8ABDE8946}"/>
   </bookViews>
   <sheets>
     <sheet name="original model" sheetId="1" r:id="rId1"/>
-    <sheet name="high reliability model" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="high reliability model" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="39">
   <si>
     <t>$n150</t>
   </si>
@@ -152,13 +153,17 @@
   <si>
     <t>rmse.high.mod</t>
   </si>
+  <si>
+    <t>&amp;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -189,9 +194,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54CFEE0-858A-7047-9E5B-677F3681B0B3}">
   <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3858,6 +3864,1431 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BFB58D-5F05-1444-A8B7-2914BA75FA03}">
+  <dimension ref="A1:W20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:W19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" s="2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W9" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W12" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W13" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U14" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W14" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U15" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W15" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S16" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U16" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W16" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S17" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U18" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W18" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W19" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29672E2E-A617-7540-8C3A-C34F04DBD215}">
   <dimension ref="A1:G158"/>
   <sheetViews>
